--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -532,9 +532,35 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Greg s</v>
+      </c>
+      <c r="C6" t="str">
+        <v>3/24/2025</v>
+      </c>
+      <c r="D6" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -397,46 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Sponsor Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v xml:space="preserve"> Guest Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v xml:space="preserve"> Date Sold</v>
-      </c>
-      <c r="D1" t="str">
-        <v xml:space="preserve"> SRC Staff Initials</v>
-      </c>
-      <c r="E1" t="str">
-        <v xml:space="preserve"> Guest Pass Number</v>
-      </c>
-      <c r="F1" t="str">
-        <v xml:space="preserve"> Email</v>
-      </c>
-      <c r="G1" t="str">
-        <v xml:space="preserve"> Product</v>
-      </c>
-      <c r="H1" t="str">
-        <v xml:space="preserve"> Amount</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Matthew Wolz</v>
       </c>
       <c r="B2" t="str">
-        <v>Greg S</v>
+        <v xml:space="preserve">JJ </v>
       </c>
       <c r="C2" t="str">
-        <v>3/24/2025</v>
+        <v>4/23/2025</v>
       </c>
       <c r="D2" t="str">
         <v>MW</v>
@@ -456,19 +430,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Matthew Wolz</v>
+        <v>Matthew wolz</v>
       </c>
       <c r="B3" t="str">
-        <v>Greg S</v>
+        <v>JJ</v>
       </c>
       <c r="C3" t="str">
-        <v>3/24/2025</v>
+        <v>4/23/2025</v>
       </c>
       <c r="D3" t="str">
         <v>MW</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>
@@ -477,90 +451,12 @@
         <v>Daily Guest Pass</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Matthew Wolz</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Greg S</v>
-      </c>
-      <c r="C4" t="str">
-        <v>3/24/2025</v>
-      </c>
-      <c r="D4" t="str">
-        <v>MW</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Daily Guest Pass</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Matthew Wolz</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Greg S</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3/24/2025</v>
-      </c>
-      <c r="D5" t="str">
-        <v>MW</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Daily Guest Pass</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Matthew Wolz</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Greg s</v>
-      </c>
-      <c r="C6" t="str">
-        <v>3/24/2025</v>
-      </c>
-      <c r="D6" t="str">
-        <v>MW</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Daily Guest Pass</v>
-      </c>
-      <c r="H6">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-04-23" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -402,21 +402,47 @@
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Sponsor Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Guest Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Initials</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Receipt Number</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Item</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Price</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Matthew Wolz</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve">JJ </v>
+        <v>Tiffany</v>
       </c>
       <c r="C2" t="str">
-        <v>4/23/2025</v>
+        <v>2025-04-23</v>
       </c>
       <c r="D2" t="str">
         <v>MW</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" t="str">
         <v>N/A</v>
@@ -430,19 +456,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Matthew wolz</v>
+        <v>Matthew Wolz</v>
       </c>
       <c r="B3" t="str">
-        <v>JJ</v>
+        <v>JJ James JJ</v>
       </c>
       <c r="C3" t="str">
-        <v>4/23/2025</v>
+        <v>2025-04-23</v>
       </c>
       <c r="D3" t="str">
         <v>MW</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>

--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="2025-04-23" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-04-24" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-04-25" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -433,16 +434,16 @@
         <v>Matthew Wolz</v>
       </c>
       <c r="B2" t="str">
-        <v>Tiffany</v>
+        <v>Charles Darwin TESTING TWO</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-23</v>
+        <v>2025-04-24</v>
       </c>
       <c r="D2" t="str">
         <v>MW</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2" t="str">
         <v>N/A</v>
@@ -459,16 +460,16 @@
         <v>Matthew Wolz</v>
       </c>
       <c r="B3" t="str">
-        <v>JJ James JJ</v>
+        <v>Justina Wimer</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-04-23</v>
+        <v>2025-04-24</v>
       </c>
       <c r="D3" t="str">
         <v>MW</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>
@@ -480,9 +481,309 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Justina Wimer</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D4" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>James W</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Greg S</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D5" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <v>10 Visit Guest Pass</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Tiffany Neff</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D6" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>10 Visit Children Guest Pass</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Kafi Rahman</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Little Kafi Rahman</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D7" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Youth Guest Pass</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Charles Darwin</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Isaac Newton</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D8" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Youth Guest Pass</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Aiden W</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D9" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mason Berliner</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-04-24</v>
+      </c>
+      <c r="D10" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Sponsor Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Guest Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Initials</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Receipt Number</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Item</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Price</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>matthew wolz</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Adli Jacobs</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D2" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Aiden Wolz</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D3" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Youth Guest Pass</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>matthew wolz</v>
+      </c>
+      <c r="B4" t="str">
+        <v>jj something</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D4" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Youth Guest Pass</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -672,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -781,9 +781,295 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Charles Barkley</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D5" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Matthew WOlz</v>
+      </c>
+      <c r="B6" t="str">
+        <v>JS</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D6" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B7" t="str">
+        <v>JSDM</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D7" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>matt wool</v>
+      </c>
+      <c r="B8" t="str">
+        <v>jj glbe</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D8" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>dd</v>
+      </c>
+      <c r="B9" t="str">
+        <v>dd</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D9" t="str">
+        <v>dd</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>matthew wolz</v>
+      </c>
+      <c r="B10" t="str">
+        <v>jeejej</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D10" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>matthew test email</v>
+      </c>
+      <c r="B11" t="str">
+        <v>matthew test email</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D11" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="B12" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D12" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="B13" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D13" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="B14" t="str">
+        <v>testing email</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D14" t="str">
+        <v>mw</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Matthew Wolz Test GP Email</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Matthew Wolz JR</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D15" t="str">
+        <v>MW</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/receipts.xlsx
+++ b/backend/receipts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -982,9 +982,850 @@
         <v>125</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B21" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1:34:16 PM</v>
+      </c>
+      <c r="E21" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B22" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1:58:02 PM</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B23" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1:59:22 PM</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <v>tk41862@truman.edu</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Charles Darwin</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2:11:35 PM</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B25" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2:11:59 PM</v>
+      </c>
+      <c r="E25" t="str">
+        <v>mw</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Child 14-17 Years Old Punch Card ($25)</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B26" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2:12:10 PM</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Athletic Tape</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B27" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2:12:44 PM</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Hair Tie</v>
+      </c>
+      <c r="I27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Justina Wimer</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2:12:55 PM</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H28" t="str">
+        <v>ATSU Punch Card</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B29" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2:13:45 PM</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Guest Membership - Alumni (Spring/Fall Semester)</v>
+      </c>
+      <c r="I29">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B30" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2:13:58 PM</v>
+      </c>
+      <c r="E30" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Guest Membership - Spouse or 18+ Child (Annual)</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B31" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2:17:31 PM</v>
+      </c>
+      <c r="E31" t="str">
+        <v>mw</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Locker Rental - 1 Semester</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Justina Wimer</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2:17:44 PM</v>
+      </c>
+      <c r="E32" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Locker Rental - 2 Semesters</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Darwin Charles</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2:17:55 PM</v>
+      </c>
+      <c r="E33" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Locker Rental - 1 Year</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B34" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2:19:53 PM</v>
+      </c>
+      <c r="E34" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Guest Membership - Spouse or 18+ Child (Annual)</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B35" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2:21:01 PM</v>
+      </c>
+      <c r="E35" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Daily Guest Pass</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Matthew Wolz</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Charles Darwin</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2:21:13 PM</v>
+      </c>
+      <c r="E36" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Alumni, Spouse, Child 18+ Punch Card ($25)</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B37" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2:21:20 PM</v>
+      </c>
+      <c r="E37" t="str">
+        <v>KP</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+      <c r="G37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Child 14-17 Years Old Punch Card ($25)</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B38" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2:21:25 PM</v>
+      </c>
+      <c r="E38" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Hair Tie</v>
+      </c>
+      <c r="I38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B39" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2:21:30 PM</v>
+      </c>
+      <c r="E39" t="str">
+        <v>KP</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Athletic Tape</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B40" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2:21:36 PM</v>
+      </c>
+      <c r="E40" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>ATSU Punch Card</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B41" t="str">
+        <v>JJ</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2:21:45 PM</v>
+      </c>
+      <c r="E41" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Guest Membership - Spouse or 18+ Child (Spring/Fall Semester)</v>
+      </c>
+      <c r="I41">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B42" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2:21:52 PM</v>
+      </c>
+      <c r="E42" t="str">
+        <v>mw</v>
+      </c>
+      <c r="F42">
+        <v>22</v>
+      </c>
+      <c r="G42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Guest Membership - Spouse or 18+ Child (Summer Session)</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B43" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2:21:59 PM</v>
+      </c>
+      <c r="E43" t="str">
+        <v>KP</v>
+      </c>
+      <c r="F43">
+        <v>23</v>
+      </c>
+      <c r="G43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Guest Membership - Spouse or 18+ Child (Annual)</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B44" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2:22:05 PM</v>
+      </c>
+      <c r="E44" t="str">
+        <v>KP</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Guest Membership - Alumni (Spring/Fall Semester)</v>
+      </c>
+      <c r="I44">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Charles Darwin</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2:22:17 PM</v>
+      </c>
+      <c r="E45" t="str">
+        <v>mw</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Guest Membership - Alumni (Summer Session)</v>
+      </c>
+      <c r="I45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Darwin Charles</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2:22:29 PM</v>
+      </c>
+      <c r="E46" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46" t="str">
+        <v>wolzie99@gmail.com</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Guest Membership - Alumni (Annual)</v>
+      </c>
+      <c r="I46">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B47" t="str">
+        <v>James Clarles</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2:26:59 PM</v>
+      </c>
+      <c r="E47" t="str">
+        <v>mw</v>
+      </c>
+      <c r="F47">
+        <v>27</v>
+      </c>
+      <c r="G47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Guest Membership - Alumni Couple (Spring/Fall Semester)</v>
+      </c>
+      <c r="I47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Darwin Charles</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2:27:08 PM</v>
+      </c>
+      <c r="E48" t="str">
+        <v>dd</v>
+      </c>
+      <c r="F48">
+        <v>28</v>
+      </c>
+      <c r="G48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Guest Membership - Alumni Couple (Summer Session)</v>
+      </c>
+      <c r="I48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Darwin Charles</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2:27:16 PM</v>
+      </c>
+      <c r="E49" t="str">
+        <v>MW</v>
+      </c>
+      <c r="F49">
+        <v>29</v>
+      </c>
+      <c r="G49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Guest Membership - Alumni Couple (Annual)</v>
+      </c>
+      <c r="I49">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I49"/>
   </ignoredErrors>
 </worksheet>
 </file>